--- a/public/import/Camping sales.xlsx
+++ b/public/import/Camping sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fudge/Herd/clientbill/public/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6DABD7B-52B4-2346-B791-A38F7616F9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FA9057-5179-A148-AFD4-7053E3859BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="63560" yWindow="5060" windowWidth="28300" windowHeight="22060" xr2:uid="{2B77C5D4-2922-5D4B-A593-C84BB2A4EE9D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Oztent bag</t>
   </si>
@@ -49,9 +49,6 @@
     <t>https://www.drifta.com.au/product/drifta-tent-pole-kit-standard/?_gl=1*1a2xat3*_up*MQ..*_gs*MQ..&amp;gclid=EAIaIQobChMI9InejOq2kQMVxsA8Ah2edjvtEAQYASABEgJ_tPD_BwE&amp;gbraid=0AAAAAol_9jDhtr-dq30rZC_PkFn1TeT7D</t>
   </si>
   <si>
-    <t>https://www.bcf.com.au/p/coleman-fyreknight-hyperflame-camping-stove/385980.html?utm_content=paidsearch-pmax&amp;gclsrc=aw.ds&amp;gad_source=4&amp;gad_campaignid=20489192054&amp;gbraid=0AAAAADkTRtHdu2O498YSBtDUfsbjwy_oT&amp;gclid=EAIaIQobChMI6syMxOu2kQMVQqZmAh13PwEVEAQYASABEgKt-fD_BwE</t>
-  </si>
-  <si>
     <t>rv5 floor</t>
   </si>
   <si>
@@ -71,15 +68,6 @@
   </si>
   <si>
     <t>dropsaw</t>
-  </si>
-  <si>
-    <t>stand</t>
-  </si>
-  <si>
-    <t>https://www.bunnings.com.au/dewalt-heavy-duty-short-beam-leg-stand_p6260459?store=4455&amp;gclsrc=aw.ds&amp;gad_source=4&amp;gad_campaignid=21118986128&amp;gbraid=0AAAAADtbEB8cOTRcbxGCNM0htZaaJsScg&amp;gclid=EAIaIQobChMImfqZ2_K2kQMVTKtmAh382ACrEAQYASABEgIHUfD_BwE</t>
-  </si>
-  <si>
-    <t>stove</t>
   </si>
   <si>
     <t>total</t>
@@ -454,7 +442,7 @@
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,7 +454,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1400</v>
@@ -475,7 +463,7 @@
         <v>1000</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -502,29 +490,29 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>170</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>499</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <f>SUM(B4:B8)</f>
@@ -533,7 +521,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <f>SUM(B5:B8)</f>
@@ -555,7 +543,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>195</v>
@@ -564,34 +552,14 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>319</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>230</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://www.drifta.com.au/product/drifta-bags-suit-oztent-rv/?attribute_pa_size=sv5&amp;attribute_pa_colour=barrington-grey&amp;gad_source=1&amp;gad_campaignid=21778211502&amp;gbraid=0AAAAAol_9jDhtr-dq30rZC_PkFn1TeT7D&amp;gclid=EAIaIQobChMI9InejOq2kQMVxsA8Ah2edjvtEAQYASABEgJ_tPD_BwE" xr:uid="{A2DC1407-CA85-4A4B-802D-D6F0F6151F84}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{84645F3C-106D-E94D-B944-D13F23B0085F}"/>
     <hyperlink ref="D7" r:id="rId3" xr:uid="{B83BCC0B-CB1D-304B-AA42-1374DF20EA8C}"/>
-    <hyperlink ref="D18" r:id="rId4" display="https://www.bcf.com.au/p/coleman-fyreknight-hyperflame-camping-stove/385980.html?utm_content=paidsearch-pmax&amp;gclsrc=aw.ds&amp;gad_source=4&amp;gad_campaignid=20489192054&amp;gbraid=0AAAAADkTRtHdu2O498YSBtDUfsbjwy_oT&amp;gclid=EAIaIQobChMI6syMxOu2kQMVQqZmAh13PwEVEAQYASABEgKt-fD_BwE" xr:uid="{5B93EC5C-E895-6F48-9BBF-37FCF199F7C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/public/import/Camping sales.xlsx
+++ b/public/import/Camping sales.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fudge/Herd/clientbill/public/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FA9057-5179-A148-AFD4-7053E3859BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63822584-F282-304A-ACA0-C6546B3F7007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63560" yWindow="5060" windowWidth="28300" windowHeight="22060" xr2:uid="{2B77C5D4-2922-5D4B-A593-C84BB2A4EE9D}"/>
+    <workbookView xWindow="73600" yWindow="6320" windowWidth="28300" windowHeight="22060" xr2:uid="{2B77C5D4-2922-5D4B-A593-C84BB2A4EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,9 +536,19 @@
         <v>637</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f>B5+B6+B7</f>
+        <v>637</v>
+      </c>
+    </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>450</v>
+      </c>
+      <c r="C13">
+        <f>C12+B8</f>
+        <v>1136</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
